--- a/results/numbers/employee.xlsx
+++ b/results/numbers/employee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14440" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="16">
   <si>
     <t>Time</t>
   </si>
@@ -59,12 +59,21 @@
   <si>
     <t>Tuples</t>
   </si>
+  <si>
+    <t>Variants</t>
+  </si>
+  <si>
+    <t>Unique Variants</t>
+  </si>
+  <si>
+    <t>UniqueVariants</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +97,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,7 +122,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -158,11 +174,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -188,6 +213,10 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -213,6 +242,10 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,15 +575,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,32 +596,50 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>6.95</v>
       </c>
@@ -595,29 +649,47 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>31.04</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>374743</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
         <v>9</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
         <v>374743</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>19.88</v>
       </c>
@@ -627,29 +699,47 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>130.19999999999999</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>749485</v>
       </c>
       <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
         <v>9</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
         <v>749485</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>8.5399999999999991</v>
       </c>
@@ -659,32 +749,50 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>10.19</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
       <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>10.27</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
         <v>9</v>
       </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>33.58</v>
       </c>
@@ -694,32 +802,50 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>37.01</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>11</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="N5">
         <v>37.5</v>
       </c>
-      <c r="K5">
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
         <v>9</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>8.68</v>
       </c>
@@ -729,32 +855,50 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>9.94</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>6</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>9</v>
       </c>
-      <c r="J6">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>10.23</v>
       </c>
-      <c r="K6">
+      <c r="O6">
         <v>5</v>
       </c>
-      <c r="L6" t="s">
+      <c r="P6" t="s">
         <v>9</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>8.5399999999999991</v>
       </c>
@@ -764,32 +908,50 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>10.220000000000001</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>14</v>
       </c>
-      <c r="J7">
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>10.4</v>
       </c>
-      <c r="K7">
+      <c r="O7">
         <v>6</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
         <v>9</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>7.63</v>
       </c>
@@ -799,29 +961,47 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>67.2</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>546014</v>
       </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>7</v>
       </c>
-      <c r="L8" t="s">
+      <c r="P8" t="s">
         <v>9</v>
       </c>
-      <c r="M8">
+      <c r="Q8">
         <v>546014</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>35.619999999999997</v>
       </c>
@@ -831,29 +1011,47 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9">
         <v>145.80000000000001</v>
       </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>1092066</v>
       </c>
       <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9" t="s">
         <v>9</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <v>1092066</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>26.86</v>
       </c>
@@ -863,32 +1061,50 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>29.03</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>6</v>
       </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
       <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>29.43</v>
       </c>
-      <c r="K10">
+      <c r="O10">
         <v>9</v>
       </c>
-      <c r="L10" t="s">
+      <c r="P10" t="s">
         <v>9</v>
       </c>
-      <c r="M10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>27.15</v>
       </c>
@@ -898,32 +1114,50 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>29.82</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>6</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>14</v>
       </c>
-      <c r="J11">
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>30.04</v>
       </c>
-      <c r="K11">
+      <c r="O11">
         <v>10</v>
       </c>
-      <c r="L11" t="s">
+      <c r="P11" t="s">
         <v>9</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>20.73</v>
       </c>
@@ -933,32 +1167,50 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>23.06</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>6</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>13</v>
       </c>
-      <c r="J12">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>23.52</v>
       </c>
-      <c r="K12">
+      <c r="O12">
         <v>11</v>
       </c>
-      <c r="L12" t="s">
+      <c r="P12" t="s">
         <v>9</v>
       </c>
-      <c r="M12">
+      <c r="Q12">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>21.02</v>
       </c>
@@ -968,32 +1220,50 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>23.34</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>6</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>29</v>
       </c>
-      <c r="J13">
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>24.24</v>
       </c>
-      <c r="K13">
+      <c r="O13">
         <v>12</v>
       </c>
-      <c r="L13" t="s">
+      <c r="P13" t="s">
         <v>9</v>
       </c>
-      <c r="M13">
+      <c r="Q13">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>6.98</v>
       </c>
@@ -1003,29 +1273,47 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>31.81</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
       <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14">
         <v>374743</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
         <v>11</v>
       </c>
-      <c r="M14">
+      <c r="Q14">
         <v>374743</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>18.45</v>
       </c>
@@ -1035,29 +1323,47 @@
       <c r="C15" t="s">
         <v>4</v>
       </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
       <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="G15">
         <v>126.6</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15">
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15">
         <v>749485</v>
       </c>
       <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
         <v>2</v>
       </c>
-      <c r="L15" t="s">
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
         <v>11</v>
       </c>
-      <c r="M15">
+      <c r="Q15">
         <v>749485</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>8.73</v>
       </c>
@@ -1067,32 +1373,50 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>10.28</v>
       </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
       <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
         <v>8</v>
       </c>
       <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>10.23</v>
       </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
         <v>11</v>
       </c>
-      <c r="M16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="Q16">
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>33.520000000000003</v>
       </c>
@@ -1102,32 +1426,50 @@
       <c r="C17" t="s">
         <v>4</v>
       </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="G17">
         <v>37.56</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>4</v>
       </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17">
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17">
         <v>11</v>
       </c>
-      <c r="J17">
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="N17">
         <v>37.619999999999997</v>
       </c>
-      <c r="K17">
+      <c r="O17">
         <v>4</v>
       </c>
-      <c r="L17" t="s">
+      <c r="P17" t="s">
         <v>11</v>
       </c>
-      <c r="M17">
+      <c r="Q17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>8.64</v>
       </c>
@@ -1137,32 +1479,50 @@
       <c r="C18" t="s">
         <v>4</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>10.78</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>5</v>
       </c>
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18">
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18">
         <v>9</v>
       </c>
-      <c r="J18">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>10.45</v>
       </c>
-      <c r="K18">
+      <c r="O18">
         <v>5</v>
       </c>
-      <c r="L18" t="s">
+      <c r="P18" t="s">
         <v>11</v>
       </c>
-      <c r="M18">
+      <c r="Q18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>8.48</v>
       </c>
@@ -1172,32 +1532,50 @@
       <c r="C19" t="s">
         <v>4</v>
       </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>10.35</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>6</v>
       </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19">
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19">
         <v>14</v>
       </c>
-      <c r="J19">
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>10.15</v>
       </c>
-      <c r="K19">
+      <c r="O19">
         <v>6</v>
       </c>
-      <c r="L19" t="s">
+      <c r="P19" t="s">
         <v>11</v>
       </c>
-      <c r="M19">
+      <c r="Q19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>8.1300000000000008</v>
       </c>
@@ -1207,29 +1585,47 @@
       <c r="C20" t="s">
         <v>4</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>69.599999999999994</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>7</v>
       </c>
-      <c r="G20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20">
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20">
         <v>546014</v>
       </c>
       <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="O20">
         <v>7</v>
       </c>
-      <c r="L20" t="s">
+      <c r="P20" t="s">
         <v>11</v>
       </c>
-      <c r="M20">
+      <c r="Q20">
         <v>546014</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>35.53</v>
       </c>
@@ -1239,29 +1635,47 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="G21">
         <v>143.4</v>
       </c>
-      <c r="F21">
-        <v>8</v>
-      </c>
-      <c r="G21" t="s">
-        <v>8</v>
-      </c>
       <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21">
         <v>1092066</v>
       </c>
       <c r="K21">
-        <v>8</v>
-      </c>
-      <c r="L21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>8</v>
+      </c>
+      <c r="P21" t="s">
         <v>11</v>
       </c>
-      <c r="M21">
+      <c r="Q21">
         <v>1092066</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>27.43</v>
       </c>
@@ -1271,32 +1685,50 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>29.72</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>9</v>
       </c>
-      <c r="G22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22">
+      <c r="I22" t="s">
         <v>8</v>
       </c>
       <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>29.21</v>
       </c>
-      <c r="K22">
+      <c r="O22">
         <v>9</v>
       </c>
-      <c r="L22" t="s">
+      <c r="P22" t="s">
         <v>11</v>
       </c>
-      <c r="M22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="Q22">
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>27.48</v>
       </c>
@@ -1306,32 +1738,50 @@
       <c r="C23" t="s">
         <v>4</v>
       </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
       <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>30.36</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>10</v>
       </c>
-      <c r="G23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23">
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23">
         <v>14</v>
       </c>
-      <c r="J23">
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="N23">
         <v>30.17</v>
       </c>
-      <c r="K23">
+      <c r="O23">
         <v>10</v>
       </c>
-      <c r="L23" t="s">
+      <c r="P23" t="s">
         <v>11</v>
       </c>
-      <c r="M23">
+      <c r="Q23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>20.86</v>
       </c>
@@ -1341,32 +1791,50 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
       <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>23.66</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24">
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24">
         <v>13</v>
       </c>
-      <c r="J24">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="N24">
         <v>23.6</v>
       </c>
-      <c r="K24">
+      <c r="O24">
         <v>11</v>
       </c>
-      <c r="L24" t="s">
+      <c r="P24" t="s">
         <v>11</v>
       </c>
-      <c r="M24">
+      <c r="Q24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>20.77</v>
       </c>
@@ -1376,32 +1844,50 @@
       <c r="C25" t="s">
         <v>4</v>
       </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
       <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>23.32</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>12</v>
       </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25">
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25">
         <v>29</v>
       </c>
-      <c r="J25">
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>23.59</v>
       </c>
-      <c r="K25">
+      <c r="O25">
         <v>12</v>
       </c>
-      <c r="L25" t="s">
+      <c r="P25" t="s">
         <v>11</v>
       </c>
-      <c r="M25">
+      <c r="Q25">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>6.47</v>
       </c>
@@ -1411,8 +1897,14 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>18.559999999999999</v>
       </c>
@@ -1422,8 +1914,14 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>8.69</v>
       </c>
@@ -1433,8 +1931,14 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>34.33</v>
       </c>
@@ -1444,8 +1948,14 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>9.15</v>
       </c>
@@ -1455,8 +1965,14 @@
       <c r="C30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>8.6300000000000008</v>
       </c>
@@ -1466,8 +1982,14 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>7.27</v>
       </c>
@@ -1477,8 +1999,14 @@
       <c r="C32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>35.93</v>
       </c>
@@ -1488,8 +2016,14 @@
       <c r="C33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>27.82</v>
       </c>
@@ -1499,8 +2033,14 @@
       <c r="C34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>28.54</v>
       </c>
@@ -1510,8 +2050,14 @@
       <c r="C35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>21.58</v>
       </c>
@@ -1521,8 +2067,14 @@
       <c r="C36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>21.26</v>
       </c>
@@ -1532,8 +2084,14 @@
       <c r="C37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>7.1</v>
       </c>
@@ -1543,8 +2101,14 @@
       <c r="C38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>20.25</v>
       </c>
@@ -1554,8 +2118,14 @@
       <c r="C39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>8.57</v>
       </c>
@@ -1565,8 +2135,14 @@
       <c r="C40" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>34.090000000000003</v>
       </c>
@@ -1576,8 +2152,14 @@
       <c r="C41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>8.68</v>
       </c>
@@ -1587,8 +2169,14 @@
       <c r="C42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>8.67</v>
       </c>
@@ -1598,8 +2186,14 @@
       <c r="C43" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>7.24</v>
       </c>
@@ -1609,8 +2203,14 @@
       <c r="C44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>35.299999999999997</v>
       </c>
@@ -1620,8 +2220,14 @@
       <c r="C45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>27.4</v>
       </c>
@@ -1631,8 +2237,14 @@
       <c r="C46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>27.38</v>
       </c>
@@ -1642,8 +2254,14 @@
       <c r="C47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>20.74</v>
       </c>
@@ -1653,8 +2271,14 @@
       <c r="C48" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>20.77</v>
       </c>
@@ -1664,8 +2288,14 @@
       <c r="C49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>6.41</v>
       </c>
@@ -1675,8 +2305,14 @@
       <c r="C50" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>18.89</v>
       </c>
@@ -1686,8 +2322,14 @@
       <c r="C51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>8.8000000000000007</v>
       </c>
@@ -1697,8 +2339,14 @@
       <c r="C52" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>35</v>
       </c>
@@ -1708,8 +2356,14 @@
       <c r="C53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>8.76</v>
       </c>
@@ -1719,8 +2373,14 @@
       <c r="C54" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>8.57</v>
       </c>
@@ -1730,8 +2390,14 @@
       <c r="C55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>7.23</v>
       </c>
@@ -1741,8 +2407,14 @@
       <c r="C56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>35.58</v>
       </c>
@@ -1752,8 +2424,14 @@
       <c r="C57" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>27.42</v>
       </c>
@@ -1763,8 +2441,14 @@
       <c r="C58" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>28.17</v>
       </c>
@@ -1774,8 +2458,14 @@
       <c r="C59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>21.24</v>
       </c>
@@ -1785,8 +2475,14 @@
       <c r="C60" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>20.95</v>
       </c>
@@ -1795,6 +2491,12 @@
       </c>
       <c r="C61" t="s">
         <v>10</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
